--- a/Facebook.xlsx
+++ b/Facebook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20055" windowHeight="9225" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20055" windowHeight="9225"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="140">
   <si>
     <t>Product name</t>
   </si>
@@ -858,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView topLeftCell="G9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1745,6 +1745,552 @@
         <v>112</v>
       </c>
     </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" t="s">
+        <v>105</v>
+      </c>
+      <c r="I56" t="s">
+        <v>110</v>
+      </c>
+      <c r="J56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="C57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" t="s">
+        <v>101</v>
+      </c>
+      <c r="E57" t="s">
+        <v>104</v>
+      </c>
+      <c r="F57" t="s">
+        <v>106</v>
+      </c>
+      <c r="H57">
+        <v>9510945518</v>
+      </c>
+      <c r="I57" t="s">
+        <v>96</v>
+      </c>
+      <c r="J57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="C58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" t="s">
+        <v>102</v>
+      </c>
+      <c r="E58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F58" t="s">
+        <v>105</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I58" t="s">
+        <v>110</v>
+      </c>
+      <c r="J58" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="C59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" t="s">
+        <v>103</v>
+      </c>
+      <c r="E59" t="s">
+        <v>104</v>
+      </c>
+      <c r="F59" t="s">
+        <v>105</v>
+      </c>
+      <c r="G59" t="s">
+        <v>108</v>
+      </c>
+      <c r="I59" t="s">
+        <v>110</v>
+      </c>
+      <c r="J59" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" t="s">
+        <v>42</v>
+      </c>
+      <c r="D63" t="s">
+        <v>100</v>
+      </c>
+      <c r="E63" t="s">
+        <v>113</v>
+      </c>
+      <c r="F63" t="s">
+        <v>105</v>
+      </c>
+      <c r="I63" t="s">
+        <v>110</v>
+      </c>
+      <c r="J63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="C64" t="s">
+        <v>43</v>
+      </c>
+      <c r="D64" t="s">
+        <v>101</v>
+      </c>
+      <c r="E64" t="s">
+        <v>113</v>
+      </c>
+      <c r="F64" t="s">
+        <v>106</v>
+      </c>
+      <c r="H64">
+        <v>123456</v>
+      </c>
+      <c r="I64" t="s">
+        <v>110</v>
+      </c>
+      <c r="J64" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="C65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" t="s">
+        <v>102</v>
+      </c>
+      <c r="E65" t="s">
+        <v>113</v>
+      </c>
+      <c r="F65" t="s">
+        <v>105</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I65" t="s">
+        <v>110</v>
+      </c>
+      <c r="J65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="C66" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66" t="s">
+        <v>103</v>
+      </c>
+      <c r="E66" t="s">
+        <v>113</v>
+      </c>
+      <c r="F66" t="s">
+        <v>105</v>
+      </c>
+      <c r="G66" t="s">
+        <v>114</v>
+      </c>
+      <c r="I66" t="s">
+        <v>96</v>
+      </c>
+      <c r="J66" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" t="s">
+        <v>48</v>
+      </c>
+      <c r="D70" t="s">
+        <v>100</v>
+      </c>
+      <c r="E70" t="s">
+        <v>118</v>
+      </c>
+      <c r="F70" t="s">
+        <v>105</v>
+      </c>
+      <c r="G70" s="11"/>
+      <c r="H70" t="s">
+        <v>110</v>
+      </c>
+      <c r="I70" t="s">
+        <v>123</v>
+      </c>
+      <c r="J70" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="C71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" t="s">
+        <v>115</v>
+      </c>
+      <c r="E71" t="s">
+        <v>118</v>
+      </c>
+      <c r="F71" t="s">
+        <v>119</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H71" t="s">
+        <v>96</v>
+      </c>
+      <c r="I71" t="s">
+        <v>123</v>
+      </c>
+      <c r="J71" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="C72" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72" t="s">
+        <v>116</v>
+      </c>
+      <c r="E72" t="s">
+        <v>118</v>
+      </c>
+      <c r="F72" t="s">
+        <v>105</v>
+      </c>
+      <c r="G72" t="s">
+        <v>121</v>
+      </c>
+      <c r="H72" t="s">
+        <v>110</v>
+      </c>
+      <c r="I72" t="s">
+        <v>123</v>
+      </c>
+      <c r="J72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="C73" t="s">
+        <v>51</v>
+      </c>
+      <c r="D73" t="s">
+        <v>117</v>
+      </c>
+      <c r="E73" t="s">
+        <v>118</v>
+      </c>
+      <c r="F73" t="s">
+        <v>105</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H73" t="s">
+        <v>110</v>
+      </c>
+      <c r="I73" t="s">
+        <v>123</v>
+      </c>
+      <c r="J73" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" t="s">
+        <v>52</v>
+      </c>
+      <c r="B77" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77" t="s">
+        <v>100</v>
+      </c>
+      <c r="E77" t="s">
+        <v>127</v>
+      </c>
+      <c r="F77" t="s">
+        <v>105</v>
+      </c>
+      <c r="I77" t="s">
+        <v>110</v>
+      </c>
+      <c r="J77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="C78" t="s">
+        <v>54</v>
+      </c>
+      <c r="D78" t="s">
+        <v>124</v>
+      </c>
+      <c r="E78" t="s">
+        <v>127</v>
+      </c>
+      <c r="F78" t="s">
+        <v>106</v>
+      </c>
+      <c r="H78">
+        <v>123456</v>
+      </c>
+      <c r="I78" t="s">
+        <v>110</v>
+      </c>
+      <c r="J78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="C79" t="s">
+        <v>55</v>
+      </c>
+      <c r="D79" t="s">
+        <v>125</v>
+      </c>
+      <c r="E79" t="s">
+        <v>127</v>
+      </c>
+      <c r="F79" t="s">
+        <v>106</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I79" t="s">
+        <v>110</v>
+      </c>
+      <c r="J79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="C80" t="s">
+        <v>56</v>
+      </c>
+      <c r="D80" t="s">
+        <v>126</v>
+      </c>
+      <c r="E80" t="s">
+        <v>127</v>
+      </c>
+      <c r="F80" t="s">
+        <v>106</v>
+      </c>
+      <c r="G80" t="s">
+        <v>128</v>
+      </c>
+      <c r="I80" t="s">
+        <v>96</v>
+      </c>
+      <c r="J80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" t="s">
+        <v>57</v>
+      </c>
+      <c r="B83" t="s">
+        <v>58</v>
+      </c>
+      <c r="C83" t="s">
+        <v>59</v>
+      </c>
+      <c r="D83" t="s">
+        <v>100</v>
+      </c>
+      <c r="E83" t="s">
+        <v>133</v>
+      </c>
+      <c r="F83" t="s">
+        <v>105</v>
+      </c>
+      <c r="H83" t="s">
+        <v>110</v>
+      </c>
+      <c r="I83" t="s">
+        <v>123</v>
+      </c>
+      <c r="J83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="C84" t="s">
+        <v>60</v>
+      </c>
+      <c r="D84" t="s">
+        <v>129</v>
+      </c>
+      <c r="E84" t="s">
+        <v>133</v>
+      </c>
+      <c r="F84" t="s">
+        <v>105</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H84" t="s">
+        <v>110</v>
+      </c>
+      <c r="I84" t="s">
+        <v>139</v>
+      </c>
+      <c r="J84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="C85" t="s">
+        <v>61</v>
+      </c>
+      <c r="D85" t="s">
+        <v>129</v>
+      </c>
+      <c r="E85" t="s">
+        <v>133</v>
+      </c>
+      <c r="F85" t="s">
+        <v>105</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H85" t="s">
+        <v>110</v>
+      </c>
+      <c r="I85" t="s">
+        <v>139</v>
+      </c>
+      <c r="J85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="C86" t="s">
+        <v>62</v>
+      </c>
+      <c r="D86" t="s">
+        <v>130</v>
+      </c>
+      <c r="E86" t="s">
+        <v>133</v>
+      </c>
+      <c r="F86" t="s">
+        <v>105</v>
+      </c>
+      <c r="G86" t="s">
+        <v>136</v>
+      </c>
+      <c r="H86" t="s">
+        <v>110</v>
+      </c>
+      <c r="I86" t="s">
+        <v>139</v>
+      </c>
+      <c r="J86" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="D87" t="s">
+        <v>131</v>
+      </c>
+      <c r="E87" t="s">
+        <v>133</v>
+      </c>
+      <c r="F87" t="s">
+        <v>106</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H87" t="s">
+        <v>96</v>
+      </c>
+      <c r="I87" t="s">
+        <v>123</v>
+      </c>
+      <c r="J87" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="D88" t="s">
+        <v>132</v>
+      </c>
+      <c r="E88" t="s">
+        <v>133</v>
+      </c>
+      <c r="F88" t="s">
+        <v>105</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H88" t="s">
+        <v>110</v>
+      </c>
+      <c r="I88" t="s">
+        <v>139</v>
+      </c>
+      <c r="J88" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G18" r:id="rId1"/>
@@ -1757,9 +2303,18 @@
     <hyperlink ref="G43" r:id="rId8"/>
     <hyperlink ref="G45" r:id="rId9"/>
     <hyperlink ref="G46" r:id="rId10"/>
+    <hyperlink ref="G58" r:id="rId11"/>
+    <hyperlink ref="G65" r:id="rId12"/>
+    <hyperlink ref="G71" r:id="rId13"/>
+    <hyperlink ref="G73" r:id="rId14"/>
+    <hyperlink ref="G79" r:id="rId15"/>
+    <hyperlink ref="G84" r:id="rId16"/>
+    <hyperlink ref="G85" r:id="rId17"/>
+    <hyperlink ref="G87" r:id="rId18"/>
+    <hyperlink ref="G88" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -1767,7 +2322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
